--- a/gbif-ipt-docs/downloads/occurrence_ipt_template_v2.xlsx
+++ b/gbif-ipt-docs/downloads/occurrence_ipt_template_v2.xlsx
@@ -244,7 +244,7 @@
             <color indexed="81"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>REQUIRED
+          <t>RECOMMENDED
 Definition:</t>
         </r>
         <r>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/gbif-ipt-docs/downloads/occurrence_ipt_template_v2.xlsx
+++ b/gbif-ipt-docs/downloads/occurrence_ipt_template_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Occurrences" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -664,6 +664,29 @@
   </si>
   <si>
     <t xml:space="preserve">This sheet is used to record a list of species at a particular place and normally on a specified date. Ideally locality information includes coordinates to support mapping. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter lists using the pipe (“|”) character as a separator, for applicable DwC terms only.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -935,7 +958,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -974,6 +997,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1406,9 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1488,7 +1512,9 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
